--- a/biology/Médecine/Charles_Kayser_(physiologiste)/Charles_Kayser_(physiologiste).xlsx
+++ b/biology/Médecine/Charles_Kayser_(physiologiste)/Charles_Kayser_(physiologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charles Kayser, né le 21 juillet 1899 à Colmar (à l'époque Empire allemand) et mort le 20 septembre 1981 à Schiltigheim[1] est un biologiste, physiologiste et médecin français, pionnier de l'étude du métabolisme en condition d'hibernation et spécialiste des rythmes circadiens.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charles Kayser, né le 21 juillet 1899 à Colmar (à l'époque Empire allemand) et mort le 20 septembre 1981 à Schiltigheim est un biologiste, physiologiste et médecin français, pionnier de l'étude du métabolisme en condition d'hibernation et spécialiste des rythmes circadiens.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Aperçu biographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'abord docteur ès Sciences naturelles, Charles Kayser devient professeur agrégé de physiologie à la Faculté de médecine de Strasbourg, Il est élu membre correspondant non-résidant de l'Académie nationale de médecine le 18 février 1964[2], et directeur du Centre de Physiologie Respiratoire du C.N.R.S.. Il prend sa retraite en 1969 et s'éteint en 1981.
-Charles Kayser fut le collaborateur de Gaston Viaud et le maître de Charles Marx (physiologiste)[3] qui a poursuivi son œuvre. Il  est d'une influence majeure sur les travaux de Frédéric Bremer[4] pour la neurophysiologie, de Bernard Metz pour la physiologie appliquée et de Pierre Karli[5] de l'Académie des sciences[6] pour la neurophysiologie. Ses recherches sur l'hibernation seront continuées par son élève Bernard Canguilhem.
-« Son "Traité de Physiologie", paru en 1963, est resté la référence majeure des étudiants en médecine jusqu'au début du XXIe siècle »[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'abord docteur ès Sciences naturelles, Charles Kayser devient professeur agrégé de physiologie à la Faculté de médecine de Strasbourg, Il est élu membre correspondant non-résidant de l'Académie nationale de médecine le 18 février 1964, et directeur du Centre de Physiologie Respiratoire du C.N.R.S.. Il prend sa retraite en 1969 et s'éteint en 1981.
+Charles Kayser fut le collaborateur de Gaston Viaud et le maître de Charles Marx (physiologiste) qui a poursuivi son œuvre. Il  est d'une influence majeure sur les travaux de Frédéric Bremer pour la neurophysiologie, de Bernard Metz pour la physiologie appliquée et de Pierre Karli de l'Académie des sciences pour la neurophysiologie. Ses recherches sur l'hibernation seront continuées par son élève Bernard Canguilhem.
+« Son "Traité de Physiologie", paru en 1963, est resté la référence majeure des étudiants en médecine jusqu'au début du XXIe siècle ».
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Charles Kayser a publié ou copublié plus de 400 articles, communications, et chapitres d’ouvrages médicaux.
- « Liste de publications » (deux pages dactylographiées), S.l., s.n., [1929], Texte intégral.
+ « Liste de publications » (deux pages dactylographiées), S.l., s.n., , Texte intégral.
 Les échanges respiratoires des hibernants, Impr. M. Declume, 1940, 364 p..
 Titres et travaux scientifiques, impr. de Mont-Louis (Clermont-Ferrand), 1945.
 « Réflexes et comportement », in: Bull. Fac. Lettres Strasbourg, 1947, vol. 25, no 89, p. 133.
